--- a/Last_Bugs/cungphimjobs.xlsx
+++ b/Last_Bugs/cungphimjobs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="11835"/>
@@ -11,12 +11,47 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hieu.nguyen</author>
+  </authors>
+  <commentList>
+    <comment ref="E9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>hieu.nguyen:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Chỉ mới thêm cho Ticker. Còn các trang còn lại chưa làm
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>stt</t>
   </si>
@@ -121,9 +156,6 @@
   </si>
   <si>
     <t>\hieu</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>Giới thiệu Quy định Trợ giúp Liên hệ
@@ -133,33 +165,21 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Doi noi dung: canh deu 2 ben</t>
-  </si>
-  <si>
     <t>Random dan phim chuyen nghiep</t>
   </si>
   <si>
-    <t>chay tu dong trong profile</t>
-  </si>
-  <si>
     <t>Reply realtime and sum it</t>
   </si>
   <si>
     <t>bo profile</t>
   </si>
   <si>
-    <t>Thuat otan search</t>
-  </si>
-  <si>
     <t>pending</t>
   </si>
   <si>
     <t>OK. Sau</t>
   </si>
   <si>
-    <t>get domain of link and add "…" in this link</t>
-  </si>
-  <si>
     <t>Thay doi noi dung : $Co Phieu | @username</t>
   </si>
   <si>
@@ -178,14 +198,50 @@
     <t>Hoan thanh</t>
   </si>
   <si>
-    <t>Suy nghĩ thêm moi lam them cho trang ticker</t>
+    <t>Hooàn thành</t>
+  </si>
+  <si>
+    <t>Xây dựng home tự động chạy, còn lại giữ nguyên</t>
+  </si>
+  <si>
+    <t>Xây dựng trang home xong lam</t>
+  </si>
+  <si>
+    <t>Để cũng chẳng sao</t>
+  </si>
+  <si>
+    <t>Chỉ mới xử lý ở post. Chưa xử lý ở reply</t>
+  </si>
+  <si>
+    <t>Hoaàn thanh ở post. Reply chưa có</t>
+  </si>
+  <si>
+    <t>ok. sau</t>
+  </si>
+  <si>
+    <t>hoan thanh</t>
+  </si>
+  <si>
+    <t>Hoaàn thanh</t>
+  </si>
+  <si>
+    <t>Không cần thêm</t>
+  </si>
+  <si>
+    <t>Đã làm xong trong trang ticker</t>
+  </si>
+  <si>
+    <t>Đang chờ Quang-truong</t>
+  </si>
+  <si>
+    <t>Thuat toán search</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,8 +272,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +310,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -280,9 +363,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -348,6 +428,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -651,7 +756,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -659,8 +764,9 @@
     <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="54" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="73.7109375" customWidth="1"/>
+    <col min="4" max="4" width="53.140625" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -668,129 +774,123 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="22" customFormat="1">
-      <c r="A2" s="19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="21" customFormat="1">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="26" customFormat="1">
-      <c r="A3" s="23">
-        <v>2</v>
-      </c>
-      <c r="B3" s="24" t="s">
+      <c r="C2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="25" customFormat="1">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="30" customFormat="1">
-      <c r="A4" s="27">
+      <c r="C3" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="29" customFormat="1">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="30" customFormat="1">
-      <c r="A5" s="27">
+      <c r="C4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="29" customFormat="1">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="30" t="s">
+      <c r="C5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="30" t="s">
+      <c r="E5" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="12" customFormat="1">
-      <c r="A6" s="9">
+    </row>
+    <row r="6" spans="1:7" s="11" customFormat="1">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="C6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="12" customFormat="1">
-      <c r="A7" s="9">
+    </row>
+    <row r="7" spans="1:7" s="11" customFormat="1">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="8" customFormat="1">
-      <c r="A8" s="5">
+      <c r="E7" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="29" customFormat="1">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="C8" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>34</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -803,218 +903,255 @@
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="17" customFormat="1" ht="30">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="17" customFormat="1">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="33" customFormat="1">
+      <c r="A12" s="30">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="33" customFormat="1">
+      <c r="A13" s="30">
+        <v>12</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="33" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A14" s="30">
+        <v>13</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="7" customFormat="1">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="33" customFormat="1">
+      <c r="A17" s="30">
+        <v>16</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="29" customFormat="1">
+      <c r="A18" s="26">
+        <v>17</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="12" customFormat="1">
+      <c r="A19" s="35">
+        <v>18</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="17" customFormat="1">
+      <c r="A20" s="13">
+        <v>21</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="29" customFormat="1">
+      <c r="A21" s="26">
+        <v>22</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="E21" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="12" customFormat="1">
+      <c r="A22" s="35">
+        <v>23</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="18" customFormat="1" ht="30">
-      <c r="A10" s="14">
-        <v>9</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="F22" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="8" customFormat="1">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="8" customFormat="1">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="23" spans="1:7" s="17" customFormat="1">
+      <c r="A23" s="13">
+        <v>24</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="17" customFormat="1">
+      <c r="A24" s="13">
+        <v>25</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="E24" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="12" customFormat="1">
+      <c r="A25" s="35">
+        <v>26</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="8" customFormat="1">
-      <c r="A21" s="5">
-        <v>22</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1">
-        <v>23</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1">
-        <v>24</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1">
-        <v>25</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1">
-        <v>26</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>48</v>
+      <c r="E25" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1022,25 +1159,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30">
-      <c r="A27" s="1">
+    <row r="27" spans="1:7" s="17" customFormat="1" ht="30">
+      <c r="A27" s="13">
         <v>27</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="B28" s="3" t="s">
+      <c r="E27" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="29" customFormat="1">
+      <c r="A28" s="26"/>
+      <c r="B28" s="27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="B29" s="3" t="s">
-        <v>49</v>
+      <c r="C28" s="26"/>
+      <c r="E28" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="17" customFormat="1">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="E29" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1068,6 +1219,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>
+  <legacyDrawing r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/Last_Bugs/cungphimjobs.xlsx
+++ b/Last_Bugs/cungphimjobs.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="11835"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t>stt</t>
   </si>
@@ -226,9 +226,6 @@
   </si>
   <si>
     <t>Không cần thêm</t>
-  </si>
-  <si>
-    <t>Đã làm xong trong trang ticker</t>
   </si>
   <si>
     <t>Đang chờ Quang-truong</t>
@@ -353,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -453,6 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -756,7 +754,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -893,18 +891,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
+    <row r="9" spans="1:7" s="17" customFormat="1">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>58</v>
+      <c r="C9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="17" customFormat="1" ht="30">
@@ -1025,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" s="33" t="s">
         <v>40</v>
@@ -1062,7 +1060,7 @@
         <v>41</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="17" customFormat="1">

--- a/Last_Bugs/cungphimjobs.xlsx
+++ b/Last_Bugs/cungphimjobs.xlsx
@@ -183,9 +183,6 @@
     <t>Thay doi noi dung : $Co Phieu | @username</t>
   </si>
   <si>
-    <t>Tam thoi load hinh</t>
-  </si>
-  <si>
     <t>Cat gia</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>Thuat toán search</t>
+  </si>
+  <si>
+    <t>Tam thoi load pdf</t>
   </si>
 </sst>
 </file>
@@ -350,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -435,9 +435,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -451,6 +448,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -754,7 +761,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -786,10 +793,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="25" customFormat="1">
@@ -803,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="29" customFormat="1">
@@ -817,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="29" customFormat="1">
@@ -834,7 +841,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>34</v>
@@ -851,7 +858,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>34</v>
@@ -871,7 +878,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="29" customFormat="1">
@@ -885,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="29" t="s">
         <v>34</v>
@@ -901,8 +908,8 @@
       <c r="C9" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="39" t="s">
-        <v>55</v>
+      <c r="E9" s="38" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="17" customFormat="1" ht="30">
@@ -919,7 +926,7 @@
         <v>35</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="17" customFormat="1">
@@ -933,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="33" customFormat="1">
@@ -964,29 +971,29 @@
         <v>2</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="33" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A14" s="30">
+    <row r="14" spans="1:7" s="17" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="33" t="s">
+      <c r="C14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="33" t="s">
+      <c r="F14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1023,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="33" t="s">
         <v>40</v>
@@ -1043,24 +1050,24 @@
         <v>39</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="12" customFormat="1">
-      <c r="A19" s="35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="42" customFormat="1">
+      <c r="A19" s="39">
         <v>18</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="12" t="s">
+      <c r="C19" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>58</v>
+      <c r="F19" s="42" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="17" customFormat="1">
@@ -1075,7 +1082,7 @@
         <v>22</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="29" customFormat="1">
@@ -1087,25 +1094,25 @@
       </c>
       <c r="C21" s="26"/>
       <c r="E21" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="12" customFormat="1">
-      <c r="A22" s="35">
+      <c r="A22" s="34">
         <v>23</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="35"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="17" customFormat="1">
@@ -1120,7 +1127,7 @@
         <v>27</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="17" customFormat="1">
@@ -1136,20 +1143,20 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="12" customFormat="1">
-      <c r="A25" s="35">
+      <c r="A25" s="34">
         <v>26</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1161,7 +1168,7 @@
       <c r="A27" s="13">
         <v>27</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="13"/>
@@ -1169,7 +1176,7 @@
         <v>31</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="29" customFormat="1">
@@ -1179,17 +1186,17 @@
       </c>
       <c r="C28" s="26"/>
       <c r="E28" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="17" customFormat="1">
       <c r="A29" s="13"/>
       <c r="B29" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="13"/>
       <c r="E29" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Last_Bugs/cungphimjobs.xlsx
+++ b/Last_Bugs/cungphimjobs.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
   <si>
     <t>stt</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>Tam thoi load pdf</t>
+  </si>
+  <si>
+    <t>khong cần làm</t>
   </si>
 </sst>
 </file>
@@ -350,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -361,16 +364,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -761,7 +754,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -782,380 +775,386 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="21" customFormat="1">
-      <c r="A2" s="18">
+    <row r="2" spans="1:7" s="17" customFormat="1">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="25" customFormat="1">
-      <c r="A3" s="22">
-        <v>2</v>
-      </c>
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="1:7" s="21" customFormat="1">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="C3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="29" customFormat="1">
-      <c r="A4" s="26">
+    <row r="4" spans="1:7" s="25" customFormat="1">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="29" customFormat="1">
-      <c r="A5" s="26">
+    <row r="5" spans="1:7" s="25" customFormat="1">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="29" t="s">
+      <c r="C5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="11" customFormat="1">
-      <c r="A6" s="8">
+    <row r="6" spans="1:7" s="7" customFormat="1">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="C6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="11" customFormat="1">
-      <c r="A7" s="8">
+    <row r="7" spans="1:7" s="7" customFormat="1">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="29" customFormat="1">
-      <c r="A8" s="26">
+    <row r="8" spans="1:7" s="25" customFormat="1">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="29" t="s">
+      <c r="C8" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="17" customFormat="1">
-      <c r="A9" s="13">
+    <row r="9" spans="1:7" s="13" customFormat="1">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="38" t="s">
+      <c r="C9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="17" customFormat="1" ht="30">
-      <c r="A10" s="13">
+    <row r="10" spans="1:7" s="13" customFormat="1" ht="30">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="17" customFormat="1">
-      <c r="A11" s="13">
+    <row r="11" spans="1:7" s="13" customFormat="1">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="33" customFormat="1">
-      <c r="A12" s="30">
+    <row r="12" spans="1:7" s="13" customFormat="1">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="33" t="s">
+      <c r="C12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="33" customFormat="1">
-      <c r="A13" s="30">
+    <row r="13" spans="1:7" s="29" customFormat="1">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="33" t="s">
+      <c r="C13" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="17" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A14" s="13">
+    <row r="14" spans="1:7" s="13" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="17" t="s">
+      <c r="C14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1">
-      <c r="A15" s="4">
+    <row r="15" spans="1:7" s="25" customFormat="1">
+      <c r="A15" s="22">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="7" customFormat="1">
-      <c r="A16" s="4">
+      <c r="C15" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="25" customFormat="1">
+      <c r="A16" s="22">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="33" customFormat="1">
-      <c r="A17" s="30">
+      <c r="C16" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="29" customFormat="1">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="33" t="s">
+      <c r="C17" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="29" customFormat="1">
-      <c r="A18" s="26">
+    <row r="18" spans="1:7" s="25" customFormat="1">
+      <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="29" t="s">
+      <c r="C18" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="42" customFormat="1">
-      <c r="A19" s="39">
+    <row r="19" spans="1:7" s="38" customFormat="1">
+      <c r="A19" s="35">
         <v>18</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="42" t="s">
+      <c r="C19" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="17" customFormat="1">
-      <c r="A20" s="13">
+    <row r="20" spans="1:7" s="13" customFormat="1">
+      <c r="A20" s="9">
         <v>21</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="29" customFormat="1">
-      <c r="A21" s="26">
+    <row r="21" spans="1:7" s="25" customFormat="1">
+      <c r="A21" s="22">
         <v>22</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="E21" s="17" t="s">
+      <c r="C21" s="22"/>
+      <c r="E21" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="12" customFormat="1">
-      <c r="A22" s="34">
+    <row r="22" spans="1:7" s="8" customFormat="1">
+      <c r="A22" s="30">
         <v>23</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="17" customFormat="1">
-      <c r="A23" s="13">
+    <row r="23" spans="1:7" s="13" customFormat="1">
+      <c r="A23" s="9">
         <v>24</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="17" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="17" customFormat="1">
-      <c r="A24" s="13">
+    <row r="24" spans="1:7" s="13" customFormat="1">
+      <c r="A24" s="9">
         <v>25</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="E24" s="17" t="s">
+      <c r="C24" s="9"/>
+      <c r="E24" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="12" customFormat="1">
-      <c r="A25" s="34">
+    <row r="25" spans="1:7" s="8" customFormat="1">
+      <c r="A25" s="30">
         <v>26</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="12" t="s">
+      <c r="C25" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1164,38 +1163,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="17" customFormat="1" ht="30">
-      <c r="A27" s="13">
+    <row r="27" spans="1:7" s="13" customFormat="1" ht="30">
+      <c r="A27" s="9">
         <v>27</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="17" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="29" customFormat="1">
-      <c r="A28" s="26"/>
-      <c r="B28" s="27" t="s">
+    <row r="28" spans="1:7" s="25" customFormat="1">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="E28" s="29" t="s">
+      <c r="C28" s="22"/>
+      <c r="E28" s="25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="17" customFormat="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14" t="s">
+    <row r="29" spans="1:7" s="13" customFormat="1">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="E29" s="17" t="s">
+      <c r="C29" s="9"/>
+      <c r="E29" s="13" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Last_Bugs/cungphimjobs.xlsx
+++ b/Last_Bugs/cungphimjobs.xlsx
@@ -353,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -440,7 +440,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -451,6 +450,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -754,7 +763,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -891,17 +900,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="13" customFormat="1">
-      <c r="A9" s="9">
+    <row r="9" spans="1:7" s="41" customFormat="1">
+      <c r="A9" s="38">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="34" t="s">
+      <c r="C9" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="41" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1052,20 +1061,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="38" customFormat="1">
-      <c r="A19" s="35">
+    <row r="19" spans="1:7" s="37" customFormat="1">
+      <c r="A19" s="34">
         <v>18</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="38" t="s">
+      <c r="C19" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="37" t="s">
         <v>57</v>
       </c>
     </row>

--- a/Last_Bugs/cungphimjobs.xlsx
+++ b/Last_Bugs/cungphimjobs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="11760"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -350,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -447,7 +447,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -458,6 +457,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -761,7 +770,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -898,17 +907,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="17" customFormat="1">
-      <c r="A9" s="13">
+    <row r="9" spans="1:7" s="45" customFormat="1">
+      <c r="A9" s="42">
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="38" t="s">
+      <c r="C9" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="45" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1053,20 +1062,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="42" customFormat="1">
-      <c r="A19" s="39">
+    <row r="19" spans="1:7" s="41" customFormat="1">
+      <c r="A19" s="38">
         <v>18</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="42" t="s">
+      <c r="C19" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="41" t="s">
         <v>57</v>
       </c>
     </row>
